--- a/MyData/myData1.xlsx
+++ b/MyData/myData1.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="24855" windowHeight="12030"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="24855" windowHeight="12030" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="add cutomer" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="26">
   <si>
     <t>admin</t>
   </si>
@@ -43,6 +45,57 @@
   </si>
   <si>
     <t>sonaliEX-1</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>amolEX-12</t>
+  </si>
+  <si>
+    <t>komalEX-12</t>
+  </si>
+  <si>
+    <t>sunnyEX-12</t>
+  </si>
+  <si>
+    <t>sonaliEX-12</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address </t>
+  </si>
+  <si>
+    <t>contact1</t>
+  </si>
+  <si>
+    <t>contact2</t>
+  </si>
+  <si>
+    <t>Akshay</t>
+  </si>
+  <si>
+    <t>abc1</t>
+  </si>
+  <si>
+    <t>abc2</t>
+  </si>
+  <si>
+    <t>abc3</t>
+  </si>
+  <si>
+    <t>abc4</t>
   </si>
 </sst>
 </file>
@@ -66,7 +119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -74,12 +127,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -87,6 +159,58 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>593147</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>502227</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>112568</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1203613" y="1095374"/>
+          <a:ext cx="2441864" cy="731694"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -376,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -432,24 +556,389 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="G13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="G14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A10:D14"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>1234</v>
+      </c>
+      <c r="D11">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>1235</v>
+      </c>
+      <c r="D12">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>1236</v>
+      </c>
+      <c r="D13">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>1237</v>
+      </c>
+      <c r="D14">
+        <v>1237</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>1234</v>
+      </c>
+      <c r="D2">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>1235</v>
+      </c>
+      <c r="D3">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>1236</v>
+      </c>
+      <c r="D4">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>1237</v>
+      </c>
+      <c r="D5">
+        <v>1237</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>